--- a/3.Docs/GeekTrack BOM表和淘宝链接.xlsx
+++ b/3.Docs/GeekTrack BOM表和淘宝链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28117" windowHeight="12720"/>
+    <workbookView windowWidth="28117" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_GeekTrack_2-PCB_GeekTrack_P" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="194">
   <si>
     <t>No.</t>
   </si>
@@ -166,7 +166,7 @@
     <t>C239520</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.80.2994408emIWA7s&amp;id=680888131494&amp;ns=1&amp;abbucket=17#detail</t>
+    <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.4.e8ec7484b4JZQw&amp;id=649143549174</t>
   </si>
   <si>
     <t>8</t>
@@ -217,6 +217,9 @@
     <t>C99727</t>
   </si>
   <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.4.e8ec7484tWksgR&amp;id=634488121508</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -448,7 +451,7 @@
     <t>C589215</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.6.4e173a782ALUVl&amp;id=666626116161&amp;ns=1&amp;abbucket=17#detail</t>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.27.ebef3a78c0KgF2&amp;id=680469184265&amp;ns=1&amp;abbucket=17#detail</t>
   </si>
   <si>
     <t>27</t>
@@ -511,7 +514,7 @@
     <t>C6568</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-21223910208.9.40806a4baXwCvG&amp;id=522575454240</t>
+    <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.4.91d57484hJDKlX&amp;id=668800009010</t>
   </si>
   <si>
     <t>30</t>
@@ -605,7 +608,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,13 +630,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1068,46 +1064,49 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1119,103 +1118,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1602,8 +1599,8 @@
   <sheetPr/>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1613,7 +1610,9 @@
     <col min="3" max="3" width="28.9380530973451" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="36.1150442477876" customWidth="1"/>
-    <col min="6" max="10" width="20" customWidth="1"/>
+    <col min="6" max="6" width="6.84070796460177" customWidth="1"/>
+    <col min="7" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="7.84070796460177" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1877,7 +1876,7 @@
       <c r="J8" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1951,7 +1950,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1982,34 +1981,37 @@
       <c r="J11" t="s">
         <v>20</v>
       </c>
+      <c r="K11" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
@@ -2017,31 +2019,31 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
         <v>76</v>
       </c>
-      <c r="E13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>75</v>
-      </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
@@ -2049,7 +2051,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -2058,10 +2060,10 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -2081,101 +2083,101 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>89</v>
+      <c r="K15" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
         <v>92</v>
       </c>
-      <c r="E16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>91</v>
-      </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
@@ -2183,16 +2185,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
         <v>37</v>
@@ -2201,13 +2203,13 @@
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
@@ -2215,16 +2217,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
         <v>37</v>
@@ -2233,13 +2235,13 @@
         <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J19" t="s">
         <v>20</v>
@@ -2247,16 +2249,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
         <v>37</v>
@@ -2265,13 +2267,13 @@
         <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J20" t="s">
         <v>20</v>
@@ -2279,16 +2281,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
         <v>37</v>
@@ -2297,13 +2299,13 @@
         <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J21" t="s">
         <v>20</v>
@@ -2311,16 +2313,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
         <v>37</v>
@@ -2329,13 +2331,13 @@
         <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H22" t="s">
         <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
@@ -2343,16 +2345,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
         <v>37</v>
@@ -2361,13 +2363,13 @@
         <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J23" t="s">
         <v>20</v>
@@ -2375,16 +2377,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E24" t="s">
         <v>37</v>
@@ -2393,13 +2395,13 @@
         <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J24" t="s">
         <v>20</v>
@@ -2407,7 +2409,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
@@ -2416,7 +2418,7 @@
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
         <v>37</v>
@@ -2439,16 +2441,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
         <v>37</v>
@@ -2457,13 +2459,13 @@
         <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J26" t="s">
         <v>20</v>
@@ -2471,276 +2473,276 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
         <v>140</v>
       </c>
-      <c r="E27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>139</v>
-      </c>
       <c r="H27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J27" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>144</v>
+      <c r="K27" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J28" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>152</v>
+      <c r="K28" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
         <v>155</v>
       </c>
-      <c r="E29" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>154</v>
-      </c>
       <c r="H29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J29" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>158</v>
+      <c r="K29" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
         <v>161</v>
       </c>
-      <c r="E30" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>160</v>
-      </c>
       <c r="H30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J30" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>165</v>
+      <c r="K30" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
         <v>168</v>
       </c>
-      <c r="E31" t="s">
-        <v>169</v>
-      </c>
-      <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>167</v>
-      </c>
       <c r="H31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J31" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>172</v>
+      <c r="K31" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
         <v>175</v>
       </c>
-      <c r="E32" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>174</v>
-      </c>
       <c r="H32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J32" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>179</v>
+      <c r="K32" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
         <v>182</v>
       </c>
-      <c r="E33" t="s">
-        <v>183</v>
-      </c>
-      <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>181</v>
-      </c>
       <c r="H33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J33" t="s">
         <v>20</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D34" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
         <v>189</v>
       </c>
-      <c r="E34" t="s">
-        <v>190</v>
-      </c>
-      <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>188</v>
-      </c>
       <c r="H34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J34" t="s">
         <v>20</v>
@@ -2753,19 +2755,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K31" r:id="rId1" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-21223910208.9.2c686a4b5ioAVW&amp;id=635409903966"/>
-    <hyperlink ref="K30" r:id="rId2" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-21223910208.9.40806a4baXwCvG&amp;id=522575454240"/>
-    <hyperlink ref="K32" r:id="rId3" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-21223910208.9.14556a4bACV0di&amp;id=536588151627"/>
+    <hyperlink ref="K31" r:id="rId1" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-21223910208.9.2c686a4b5ioAVW&amp;id=635409903966" tooltip="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-21223910208.9.2c686a4b5ioAVW&amp;id=635409903966"/>
+    <hyperlink ref="K30" r:id="rId2" display="https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.4.91d57484hJDKlX&amp;id=668800009010" tooltip="https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.4.91d57484hJDKlX&amp;id=668800009010"/>
+    <hyperlink ref="K32" r:id="rId3" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-21223910208.9.14556a4bACV0di&amp;id=536588151627" tooltip="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-21223910208.9.14556a4bACV0di&amp;id=536588151627"/>
     <hyperlink ref="K33" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-21223910208.13.2dfa6a4bZyPkDQ&amp;id=565713201153"/>
-    <hyperlink ref="K29" r:id="rId5" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-21223910208.9.68226a4bnFKbGB&amp;id=665627494324"/>
+    <hyperlink ref="K29" r:id="rId5" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-21223910208.9.68226a4bnFKbGB&amp;id=665627494324" tooltip="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-21223910208.9.68226a4bnFKbGB&amp;id=665627494324"/>
     <hyperlink ref="K28" r:id="rId6" display="https://item.taobao.com/item.htm?spm=a230r.1.14.22.6d3a1c57UzZcqo&amp;id=620243288754&amp;ns=1&amp;abbucket=17#detail"/>
-    <hyperlink ref="K27" r:id="rId7" display="https://item.taobao.com/item.htm?spm=a230r.1.14.6.4e173a782ALUVl&amp;id=666626116161&amp;ns=1&amp;abbucket=17#detail"/>
-    <hyperlink ref="K15" r:id="rId8" display="https://item.taobao.com/item.htm?id=681842047795&amp;ali_refid=a3_430582_1006:1107615988:N:80pBiYVzngireiE2FH%2FHokj48ItAtrg%2B:b50c2cb3e68fa87c117b172717488a71&amp;ali_trackid=1_b50c2cb3e68fa87c117b172717488a71&amp;spm=a230r.1.14.11#detail"/>
+    <hyperlink ref="K27" r:id="rId7" display="https://item.taobao.com/item.htm?spm=a230r.1.14.27.ebef3a78c0KgF2&amp;id=680469184265&amp;ns=1&amp;abbucket=17#detail" tooltip="https://item.taobao.com/item.htm?spm=a230r.1.14.27.ebef3a78c0KgF2&amp;id=680469184265&amp;ns=1&amp;abbucket=17#detail"/>
+    <hyperlink ref="K15" r:id="rId8" display="https://item.taobao.com/item.htm?id=681842047795&amp;ali_refid=a3_430582_1006:1107615988:N:80pBiYVzngireiE2FH%2FHokj48ItAtrg%2B:b50c2cb3e68fa87c117b172717488a71&amp;ali_trackid=1_b50c2cb3e68fa87c117b172717488a71&amp;spm=a230r.1.14.11#detail" tooltip="https://item.taobao.com/item.htm?id=681842047795&amp;ali_refid=a3_430582_1006:1107615988:N:80pBiYVzngireiE2FH%2FHokj48ItAtrg%2B:b50c2cb3e68fa87c117b172717488a71&amp;ali_trackid=1_b50c2cb3e68fa87c117b172717488a71&amp;spm=a230r.1.14.11#detail"/>
     <hyperlink ref="K7" r:id="rId9" display="https://item.taobao.com/item.htm?spm=a230r.1.14.6.366ecc0cyXkeRJ&amp;id=570077498500&amp;ns=1&amp;abbucket=17#detail"/>
-    <hyperlink ref="K8" r:id="rId10" display="https://item.taobao.com/item.htm?spm=a230r.1.14.80.2994408emIWA7s&amp;id=680888131494&amp;ns=1&amp;abbucket=17#detail"/>
+    <hyperlink ref="K8" r:id="rId10" display="https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.4.e8ec7484b4JZQw&amp;id=649143549174" tooltip="https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.4.e8ec7484b4JZQw&amp;id=649143549174"/>
     <hyperlink ref="K9" r:id="rId11" display="https://item.taobao.com/item.htm?spm=a230r.1.14.34.71044f95v1Nytl&amp;id=660936853847&amp;ns=1&amp;abbucket=17#detail"/>
     <hyperlink ref="K10" r:id="rId11" display="https://item.taobao.com/item.htm?spm=a230r.1.14.34.71044f95v1Nytl&amp;id=660936853847&amp;ns=1&amp;abbucket=17#detail"/>
     <hyperlink ref="K16" r:id="rId12" display="https://item.taobao.com/item.htm?spm=a230r.1.14.45.19365aeefJqeW7&amp;id=578968316822&amp;ns=1&amp;abbucket=17#detail" tooltip="https://item.taobao.com/item.htm?spm=a230r.1.14.45.19365aeefJqeW7&amp;id=578968316822&amp;ns=1&amp;abbucket=17#detail"/>
+    <hyperlink ref="K11" r:id="rId13" display="https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.4.e8ec7484tWksgR&amp;id=634488121508"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
